--- a/kawa/tests/tlmtest/config_tlm_3.xlsx
+++ b/kawa/tests/tlmtest/config_tlm_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/kawa/tests/tlmtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDD546D-7F88-3F45-A1EF-0A41E602331C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA86B48-00A1-1A49-9CC4-4F0F1B7100AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3320" yWindow="1260" windowWidth="28800" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
@@ -6025,7 +6025,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -6096,7 +6096,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>1</v>
